--- a/docs/StructureDefinition-VAChemLabReportResult.xlsx
+++ b/docs/StructureDefinition-VAChemLabReportResult.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1589" uniqueCount="336">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1591" uniqueCount="336">
   <si>
     <t>Path</t>
   </si>
@@ -326,529 +326,545 @@
     <t>DiagnosticReport.extension</t>
   </si>
   <si>
+    <t>extensions
+user content</t>
+  </si>
+  <si>
     <t xml:space="preserve">Extension
 </t>
   </si>
   <si>
-    <t>Extension</t>
-  </si>
-  <si>
-    <t>An Extension</t>
+    <t>Additional Content defined by implementations</t>
+  </si>
+  <si>
+    <t>May be used to represent additional information that is not part of the basic definition of the resource. In order to make the use of extensions safe and manageable, there is a strict set of governance  applied to the definition and use of extensions. Though any implementer is allowed to define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension.</t>
+  </si>
+  <si>
+    <t>There can be no stigma associated with the use of extensions by any application, project, or standard - regardless of the institution or jurisdiction that uses or defines the extensions.  The use of extensions is what allows the FHIR specification to retain a core level of simplicity for everyone.</t>
+  </si>
+  <si>
+    <t>DomainResource.extension</t>
+  </si>
+  <si>
+    <t>DiagnosticReport.modifierExtension</t>
+  </si>
+  <si>
+    <t>Extensions that cannot be ignored</t>
+  </si>
+  <si>
+    <t>May be used to represent additional information that is not part of the basic definition of the resource, and that modifies the understanding of the element that contains it. Usually modifier elements provide negation or qualification. In order to make the use of extensions safe and manageable, there is a strict set of governance applied to the definition and use of extensions. Though any implementer is allowed to define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension. Applications processing a resource are required to check for modifier extensions.</t>
+  </si>
+  <si>
+    <t>DomainResource.modifierExtension</t>
+  </si>
+  <si>
+    <t>DiagnosticReport.identifier</t>
+  </si>
+  <si>
+    <t>ReportID
+Filler IDPlacer ID</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Identifier
+</t>
+  </si>
+  <si>
+    <t>Business identifier for report</t>
+  </si>
+  <si>
+    <t>Identifiers assigned to this report by the performer or other systems.</t>
+  </si>
+  <si>
+    <t>Usually assigned by the Information System of the diagnostic service provider (filler id).</t>
+  </si>
+  <si>
+    <t>Need to know what identifier to use when making queries about this report from the source laboratory, and for linking to the report outside FHIR context.</t>
+  </si>
+  <si>
+    <t>Event.identifier</t>
+  </si>
+  <si>
+    <t>OBR-51</t>
+  </si>
+  <si>
+    <t>id</t>
+  </si>
+  <si>
+    <t>DiagnosticReport.basedOn</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Request
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Reference(CarePlan|ImmunizationRecommendation|MedicationRequest|NutritionOrder|ProcedureRequest|ReferralRequest)
+</t>
+  </si>
+  <si>
+    <t>What was requested</t>
+  </si>
+  <si>
+    <t>Details concerning a test or procedure requested.</t>
+  </si>
+  <si>
+    <t>Note: Usually there is one test request for each result, however in some circumstances multiple test requests may be represented using a single test result resource. Note that there are also cases where one request leads to multiple reports.</t>
+  </si>
+  <si>
+    <t>This allows tracing of authorization for the report and tracking whether proposals/recommendations were acted upon.</t>
+  </si>
+  <si>
+    <t>Event.basedOn</t>
+  </si>
+  <si>
+    <t>ORC? OBR-2/3?</t>
+  </si>
+  <si>
+    <t>outboundRelationship[typeCode=FLFS].target</t>
+  </si>
+  <si>
+    <t>DiagnosticReport.status</t>
+  </si>
+  <si>
+    <t>registered | partial | preliminary | final +</t>
+  </si>
+  <si>
+    <t>The status of the diagnostic report as a whole.</t>
+  </si>
+  <si>
+    <t>This is labeled as "Is Modifier" because applications need to take appropriate action if a report is withdrawn.</t>
+  </si>
+  <si>
+    <t>Diagnostic services routinely issue provisional/incomplete reports, and sometimes withdraw previously released reports.</t>
+  </si>
+  <si>
+    <t>required</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/ValueSet/diagnostic-report-status</t>
+  </si>
+  <si>
+    <t>Event.status</t>
+  </si>
+  <si>
+    <t>OBR-25 (not 1:1 mapping)</t>
+  </si>
+  <si>
+    <t>statusCode  Note: final and amended are distinguished by whether observation is the subject of a ControlAct event of type "revise"</t>
+  </si>
+  <si>
+    <t>status</t>
+  </si>
+  <si>
+    <t>DiagnosticReport.category</t>
+  </si>
+  <si>
+    <t>Department
+Sub-departmentServiceDiscipline</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CodeableConcept
+</t>
+  </si>
+  <si>
+    <t>Service category</t>
+  </si>
+  <si>
+    <t>A code that classifies the clinical discipline, department or diagnostic service that created the report (e.g. cardiology, biochemistry, hematology, MRI). This is used for searching, sorting and display purposes.</t>
+  </si>
+  <si>
+    <t>The level of granularity is defined by the category concepts in the value set. More fine-grained filtering can be performed using the metadata and/or terminology hierarchy in DiagnosticReport.code.</t>
+  </si>
+  <si>
+    <t>example</t>
+  </si>
+  <si>
+    <t>Codes for diagnostic service sections.</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/ValueSet/diagnostic-service-sections</t>
+  </si>
+  <si>
+    <t>OBR-24</t>
+  </si>
+  <si>
+    <t>inboundRelationship[typeCode=COMP].source[classCode=LIST, moodCode=EVN, code &lt; LabService].code</t>
+  </si>
+  <si>
+    <t>class</t>
+  </si>
+  <si>
+    <t>DiagnosticReport.code</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Type
+</t>
+  </si>
+  <si>
+    <t>Name/Code for this diagnostic report</t>
+  </si>
+  <si>
+    <t>A code or name that describes this diagnostic report.</t>
+  </si>
+  <si>
+    <t>preferred</t>
+  </si>
+  <si>
+    <t>Codes that describe Diagnostic Reports.</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/ValueSet/report-codes</t>
+  </si>
+  <si>
+    <t>Event.code</t>
+  </si>
+  <si>
+    <t>OBR-4 (HL7 v2 doesn't provide an easy way to indicate both the ordered test and the performed panel)</t>
+  </si>
+  <si>
+    <t>code</t>
+  </si>
+  <si>
+    <t>what</t>
+  </si>
+  <si>
+    <t>DiagnosticReport.subject</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Patient
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Reference(Patient|Group|Device|Location)
+</t>
+  </si>
+  <si>
+    <t>The subject of the report - usually, but not always, the patient</t>
+  </si>
+  <si>
+    <t>The subject of the report. Usually, but not always, this is a patient. However diagnostic services also perform analyses on specimens collected from a variety of other sources.</t>
+  </si>
+  <si>
+    <t>SHALL know the subject context.</t>
+  </si>
+  <si>
+    <t>Event.subject</t>
+  </si>
+  <si>
+    <t>PID-3 (no HL7 v2 mapping for Group or Device)</t>
+  </si>
+  <si>
+    <t>participation[typeCode=SBJ]</t>
+  </si>
+  <si>
+    <t>who.focus</t>
+  </si>
+  <si>
+    <t>DiagnosticReport.context</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Encounter
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Reference(Encounter|EpisodeOfCare)
+</t>
+  </si>
+  <si>
+    <t>Health care event when test ordered</t>
+  </si>
+  <si>
+    <t>The healthcare event  (e.g. a patient and healthcare provider interaction) which this DiagnosticReport per is about.</t>
+  </si>
+  <si>
+    <t>This will typically be the encounter the event occurred within, but some events may be initiated prior to or after the official completion of an encounter or episode but still be tied to the context of the encounter or episode (e.g. pre-admission lab tests).</t>
+  </si>
+  <si>
+    <t>Links the request to the Encounter context.</t>
+  </si>
+  <si>
+    <t>Event.context</t>
+  </si>
+  <si>
+    <t>PV1-19</t>
+  </si>
+  <si>
+    <t>inboundRelationship[typeCode=COMP].source[classCode=ENC, moodCode=EVN]</t>
+  </si>
+  <si>
+    <t>context</t>
+  </si>
+  <si>
+    <t>DiagnosticReport.effective[x]</t>
+  </si>
+  <si>
+    <t>Observation time
+Effective TimeOccurrence</t>
+  </si>
+  <si>
+    <t>dateTime
+Period</t>
+  </si>
+  <si>
+    <t>Clinically relevant time/time-period for report</t>
+  </si>
+  <si>
+    <t>The time or time-period the observed values are related to. When the subject of the report is a patient, this is usually either the time of the procedure or of specimen collection(s), but very often the source of the date/time is not known, only the date/time itself.</t>
+  </si>
+  <si>
+    <t>If the diagnostic procedure was performed on the patient, this is the time it was performed. If there are specimens, the diagnostically relevant time can be derived from the specimen collection times, but the specimen information is not always available, and the exact relationship between the specimens and the diagnostically relevant time is not always automatic.</t>
+  </si>
+  <si>
+    <t>Need to know where in the patient history to file/present this report.</t>
+  </si>
+  <si>
+    <t>Event.occurrence[x]</t>
+  </si>
+  <si>
+    <t>OBR-7</t>
+  </si>
+  <si>
+    <t>effectiveTime</t>
+  </si>
+  <si>
+    <t>when.done</t>
+  </si>
+  <si>
+    <t>DiagnosticReport.issued</t>
+  </si>
+  <si>
+    <t>Date Created
+Date publishedDate Issued</t>
+  </si>
+  <si>
+    <t xml:space="preserve">instant
+</t>
+  </si>
+  <si>
+    <t>DateTime this version was released</t>
+  </si>
+  <si>
+    <t>The date and time that this version of the report was released from the source diagnostic service.</t>
+  </si>
+  <si>
+    <t>May be different from the update time of the resource itself, because that is the status of the record (potentially a secondary copy), not the actual release time of the report.</t>
+  </si>
+  <si>
+    <t>Clinicians need to be able to check the date that the report was released.</t>
+  </si>
+  <si>
+    <t>OBR-22</t>
+  </si>
+  <si>
+    <t>participation[typeCode=VRF or AUT].time</t>
+  </si>
+  <si>
+    <t>when.recorded</t>
+  </si>
+  <si>
+    <t>DiagnosticReport.performer</t>
+  </si>
+  <si>
+    <t>Laboratory
+ServicePractitionerDepartmentCompany</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BackboneElement
+</t>
+  </si>
+  <si>
+    <t>Participants in producing the report</t>
+  </si>
+  <si>
+    <t>Indicates who or what participated in producing the report.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ele-1:All FHIR elements must have a @value or children {hasValue() | (children().count() &gt; id.count())}
+</t>
+  </si>
+  <si>
+    <t>Event.performer</t>
+  </si>
+  <si>
+    <t>PRT-8 (where this PRT-4-Participation = "PO")</t>
+  </si>
+  <si>
+    <t>.participation[typeCode=PRF]</t>
+  </si>
+  <si>
+    <t>who.witness</t>
+  </si>
+  <si>
+    <t>DiagnosticReport.performer.id</t>
+  </si>
+  <si>
+    <t xml:space="preserve">string
+</t>
+  </si>
+  <si>
+    <t>xml:id (or equivalent in JSON)</t>
+  </si>
+  <si>
+    <t>unique id for the element within a resource (for internal references). This may be any string value that does not contain spaces.</t>
+  </si>
+  <si>
+    <t>Element.id</t>
+  </si>
+  <si>
+    <t>n/a</t>
+  </si>
+  <si>
+    <t>DiagnosticReport.performer.extension</t>
+  </si>
+  <si>
+    <t>May be used to represent additional information that is not part of the basic definition of the element. In order to make the use of extensions safe and manageable, there is a strict set of governance  applied to the definition and use of extensions. Though any implementer is allowed to define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension.</t>
+  </si>
+  <si>
+    <t>Element.extension</t>
+  </si>
+  <si>
+    <t>DiagnosticReport.performer.modifierExtension</t>
+  </si>
+  <si>
+    <t>extensions
+user contentmodifiers</t>
+  </si>
+  <si>
+    <t>May be used to represent additional information that is not part of the basic definition of the element, and that modifies the understanding of the element that contains it. Usually modifier elements provide negation or qualification. In order to make the use of extensions safe and manageable, there is a strict set of governance applied to the definition and use of extensions. Though any implementer is allowed to define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension. Applications processing a resource are required to check for modifier extensions.</t>
+  </si>
+  <si>
+    <t>BackboneElement.modifierExtension</t>
+  </si>
+  <si>
+    <t>DiagnosticReport.performer.role</t>
+  </si>
+  <si>
+    <t>Type of performer</t>
+  </si>
+  <si>
+    <t>Describes the type of participation (e.g.  a responsible party, author, or verifier).</t>
+  </si>
+  <si>
+    <t>Indicate a role of diagnostic report performer</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/ValueSet/performer-role</t>
+  </si>
+  <si>
+    <t>Event.performer.role</t>
+  </si>
+  <si>
+    <t>.functionCode</t>
+  </si>
+  <si>
+    <t>DiagnosticReport.performer.actor</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Reference(Practitioner|Organization)
+</t>
+  </si>
+  <si>
+    <t>Practitioner or Organization  participant</t>
+  </si>
+  <si>
+    <t>The reference to the  practitioner or organization involved in producing the report. For example, the diagnostic service that is responsible for issuing the report.</t>
+  </si>
+  <si>
+    <t>This is not necessarily the source of the atomic data items. It is the entity that takes responsibility for the clinical report.</t>
+  </si>
+  <si>
+    <t>Need to know whom to contact if there are queries about the results. Also may need to track the source of reports for secondary data analysis.</t>
+  </si>
+  <si>
+    <t>Event.performer.actor</t>
+  </si>
+  <si>
+    <t>.role</t>
+  </si>
+  <si>
+    <t>DiagnosticReport.specimen</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Reference(Specimen)
+</t>
+  </si>
+  <si>
+    <t>Specimens this report is based on</t>
+  </si>
+  <si>
+    <t>Details about the specimens on which this diagnostic report is based.</t>
+  </si>
+  <si>
+    <t>If the specimen is sufficiently specified with a code in the test result name, then this additional data may be redundant. If there are multiple specimens, these may be represented per observation or group.</t>
+  </si>
+  <si>
+    <t>Need to be able to report information about the collected specimens on which the report is based.</t>
+  </si>
+  <si>
+    <t>SPM</t>
+  </si>
+  <si>
+    <t>DiagnosticReport.result</t>
+  </si>
+  <si>
+    <t>Data
+Atomic ValueResultAtomic resultDataTestAnalyteBatteryOrganizer</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Reference(Observation)
+</t>
+  </si>
+  <si>
+    <t>Observations - simple, or complex nested groups</t>
+  </si>
+  <si>
+    <t>Observations that are part of this diagnostic report. Observations can be simple name/value pairs (e.g. "atomic" results), or they can be grouping observations that include references to other members of the group (e.g. "panels").</t>
+  </si>
+  <si>
+    <t>Need to support individual results, or report groups of results, where the result grouping is arbitrary, but meaningful. This structure is recursive - observations can contain observations.</t>
+  </si>
+  <si>
+    <t>OBXs</t>
+  </si>
+  <si>
+    <t>outboundRelationship[typeCode=COMP].target</t>
+  </si>
+  <si>
+    <t>DiagnosticReport.result.id</t>
+  </si>
+  <si>
+    <t>DiagnosticReport.result.extension</t>
   </si>
   <si>
     <t xml:space="preserve">value:url}
 </t>
   </si>
   <si>
+    <t>Extensions are always sliced by (at least) url</t>
+  </si>
+  <si>
     <t>open</t>
   </si>
   <si>
-    <t>DomainResource.extension</t>
-  </si>
-  <si>
-    <t>DiagnosticReport.modifierExtension</t>
-  </si>
-  <si>
-    <t>extensions
-user content</t>
-  </si>
-  <si>
-    <t>Extensions that cannot be ignored</t>
-  </si>
-  <si>
-    <t>May be used to represent additional information that is not part of the basic definition of the resource, and that modifies the understanding of the element that contains it. Usually modifier elements provide negation or qualification. In order to make the use of extensions safe and manageable, there is a strict set of governance applied to the definition and use of extensions. Though any implementer is allowed to define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension. Applications processing a resource are required to check for modifier extensions.</t>
-  </si>
-  <si>
-    <t>There can be no stigma associated with the use of extensions by any application, project, or standard - regardless of the institution or jurisdiction that uses or defines the extensions.  The use of extensions is what allows the FHIR specification to retain a core level of simplicity for everyone.</t>
-  </si>
-  <si>
-    <t>DomainResource.modifierExtension</t>
-  </si>
-  <si>
-    <t>DiagnosticReport.identifier</t>
-  </si>
-  <si>
-    <t>ReportID
-Filler IDPlacer ID</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Identifier
+    <t>note-authorString</t>
+  </si>
+  <si>
+    <t>PERSON</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension {http://hl7.org/fhir/4.0/StructureDefinition/extension-Observation.note.authorString}
 </t>
   </si>
   <si>
-    <t>Business identifier for report</t>
-  </si>
-  <si>
-    <t>Identifiers assigned to this report by the performer or other systems.</t>
-  </si>
-  <si>
-    <t>Usually assigned by the Information System of the diagnostic service provider (filler id).</t>
-  </si>
-  <si>
-    <t>Need to know what identifier to use when making queries about this report from the source laboratory, and for linking to the report outside FHIR context.</t>
-  </si>
-  <si>
-    <t>Event.identifier</t>
-  </si>
-  <si>
-    <t>OBR-51</t>
-  </si>
-  <si>
-    <t>id</t>
-  </si>
-  <si>
-    <t>DiagnosticReport.basedOn</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Request
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Reference(CarePlan|ImmunizationRecommendation|MedicationRequest|NutritionOrder|ProcedureRequest|ReferralRequest)
-</t>
-  </si>
-  <si>
-    <t>What was requested</t>
-  </si>
-  <si>
-    <t>Details concerning a test or procedure requested.</t>
-  </si>
-  <si>
-    <t>Note: Usually there is one test request for each result, however in some circumstances multiple test requests may be represented using a single test result resource. Note that there are also cases where one request leads to multiple reports.</t>
-  </si>
-  <si>
-    <t>This allows tracing of authorization for the report and tracking whether proposals/recommendations were acted upon.</t>
-  </si>
-  <si>
-    <t>Event.basedOn</t>
-  </si>
-  <si>
-    <t>ORC? OBR-2/3?</t>
-  </si>
-  <si>
-    <t>outboundRelationship[typeCode=FLFS].target</t>
-  </si>
-  <si>
-    <t>DiagnosticReport.status</t>
-  </si>
-  <si>
-    <t>registered | partial | preliminary | final +</t>
-  </si>
-  <si>
-    <t>The status of the diagnostic report as a whole.</t>
-  </si>
-  <si>
-    <t>This is labeled as "Is Modifier" because applications need to take appropriate action if a report is withdrawn.</t>
-  </si>
-  <si>
-    <t>Diagnostic services routinely issue provisional/incomplete reports, and sometimes withdraw previously released reports.</t>
-  </si>
-  <si>
-    <t>required</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/ValueSet/diagnostic-report-status</t>
-  </si>
-  <si>
-    <t>Event.status</t>
-  </si>
-  <si>
-    <t>OBR-25 (not 1:1 mapping)</t>
-  </si>
-  <si>
-    <t>statusCode  Note: final and amended are distinguished by whether observation is the subject of a ControlAct event of type "revise"</t>
-  </si>
-  <si>
-    <t>status</t>
-  </si>
-  <si>
-    <t>DiagnosticReport.category</t>
-  </si>
-  <si>
-    <t>Department
-Sub-departmentServiceDiscipline</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CodeableConcept
-</t>
-  </si>
-  <si>
-    <t>Service category</t>
-  </si>
-  <si>
-    <t>A code that classifies the clinical discipline, department or diagnostic service that created the report (e.g. cardiology, biochemistry, hematology, MRI). This is used for searching, sorting and display purposes.</t>
-  </si>
-  <si>
-    <t>The level of granularity is defined by the category concepts in the value set. More fine-grained filtering can be performed using the metadata and/or terminology hierarchy in DiagnosticReport.code.</t>
-  </si>
-  <si>
-    <t>example</t>
-  </si>
-  <si>
-    <t>Codes for diagnostic service sections.</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/ValueSet/diagnostic-service-sections</t>
-  </si>
-  <si>
-    <t>OBR-24</t>
-  </si>
-  <si>
-    <t>inboundRelationship[typeCode=COMP].source[classCode=LIST, moodCode=EVN, code &lt; LabService].code</t>
-  </si>
-  <si>
-    <t>class</t>
-  </si>
-  <si>
-    <t>DiagnosticReport.code</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Type
-</t>
-  </si>
-  <si>
-    <t>Name/Code for this diagnostic report</t>
-  </si>
-  <si>
-    <t>A code or name that describes this diagnostic report.</t>
-  </si>
-  <si>
-    <t>preferred</t>
-  </si>
-  <si>
-    <t>Codes that describe Diagnostic Reports.</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/ValueSet/report-codes</t>
-  </si>
-  <si>
-    <t>Event.code</t>
-  </si>
-  <si>
-    <t>OBR-4 (HL7 v2 doesn't provide an easy way to indicate both the ordered test and the performed panel)</t>
-  </si>
-  <si>
-    <t>code</t>
-  </si>
-  <si>
-    <t>what</t>
-  </si>
-  <si>
-    <t>DiagnosticReport.subject</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Patient
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Reference(Patient|Group|Device|Location)
-</t>
-  </si>
-  <si>
-    <t>The subject of the report - usually, but not always, the patient</t>
-  </si>
-  <si>
-    <t>The subject of the report. Usually, but not always, this is a patient. However diagnostic services also perform analyses on specimens collected from a variety of other sources.</t>
-  </si>
-  <si>
-    <t>SHALL know the subject context.</t>
-  </si>
-  <si>
-    <t>Event.subject</t>
-  </si>
-  <si>
-    <t>PID-3 (no HL7 v2 mapping for Group or Device)</t>
-  </si>
-  <si>
-    <t>participation[typeCode=SBJ]</t>
-  </si>
-  <si>
-    <t>who.focus</t>
-  </si>
-  <si>
-    <t>DiagnosticReport.context</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Encounter
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Reference(Encounter|EpisodeOfCare)
-</t>
-  </si>
-  <si>
-    <t>Health care event when test ordered</t>
-  </si>
-  <si>
-    <t>The healthcare event  (e.g. a patient and healthcare provider interaction) which this DiagnosticReport per is about.</t>
-  </si>
-  <si>
-    <t>This will typically be the encounter the event occurred within, but some events may be initiated prior to or after the official completion of an encounter or episode but still be tied to the context of the encounter or episode (e.g. pre-admission lab tests).</t>
-  </si>
-  <si>
-    <t>Links the request to the Encounter context.</t>
-  </si>
-  <si>
-    <t>Event.context</t>
-  </si>
-  <si>
-    <t>PV1-19</t>
-  </si>
-  <si>
-    <t>inboundRelationship[typeCode=COMP].source[classCode=ENC, moodCode=EVN]</t>
-  </si>
-  <si>
-    <t>context</t>
-  </si>
-  <si>
-    <t>DiagnosticReport.effective[x]</t>
-  </si>
-  <si>
-    <t>Observation time
-Effective TimeOccurrence</t>
-  </si>
-  <si>
-    <t>dateTime
-Period</t>
-  </si>
-  <si>
-    <t>Clinically relevant time/time-period for report</t>
-  </si>
-  <si>
-    <t>The time or time-period the observed values are related to. When the subject of the report is a patient, this is usually either the time of the procedure or of specimen collection(s), but very often the source of the date/time is not known, only the date/time itself.</t>
-  </si>
-  <si>
-    <t>If the diagnostic procedure was performed on the patient, this is the time it was performed. If there are specimens, the diagnostically relevant time can be derived from the specimen collection times, but the specimen information is not always available, and the exact relationship between the specimens and the diagnostically relevant time is not always automatic.</t>
-  </si>
-  <si>
-    <t>Need to know where in the patient history to file/present this report.</t>
-  </si>
-  <si>
-    <t>Event.occurrence[x]</t>
-  </si>
-  <si>
-    <t>OBR-7</t>
-  </si>
-  <si>
-    <t>effectiveTime</t>
-  </si>
-  <si>
-    <t>when.done</t>
-  </si>
-  <si>
-    <t>DiagnosticReport.issued</t>
-  </si>
-  <si>
-    <t>Date Created
-Date publishedDate Issued</t>
-  </si>
-  <si>
-    <t xml:space="preserve">instant
-</t>
-  </si>
-  <si>
-    <t>DateTime this version was released</t>
-  </si>
-  <si>
-    <t>The date and time that this version of the report was released from the source diagnostic service.</t>
-  </si>
-  <si>
-    <t>May be different from the update time of the resource itself, because that is the status of the record (potentially a secondary copy), not the actual release time of the report.</t>
-  </si>
-  <si>
-    <t>Clinicians need to be able to check the date that the report was released.</t>
-  </si>
-  <si>
-    <t>OBR-22</t>
-  </si>
-  <si>
-    <t>participation[typeCode=VRF or AUT].time</t>
-  </si>
-  <si>
-    <t>when.recorded</t>
-  </si>
-  <si>
-    <t>DiagnosticReport.performer</t>
-  </si>
-  <si>
-    <t>Laboratory
-ServicePractitionerDepartmentCompany</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BackboneElement
-</t>
-  </si>
-  <si>
-    <t>Participants in producing the report</t>
-  </si>
-  <si>
-    <t>Indicates who or what participated in producing the report.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ele-1:All FHIR elements must have a @value or children {hasValue() | (children().count() &gt; id.count())}
-</t>
-  </si>
-  <si>
-    <t>Event.performer</t>
-  </si>
-  <si>
-    <t>PRT-8 (where this PRT-4-Participation = "PO")</t>
-  </si>
-  <si>
-    <t>.participation[typeCode=PRF]</t>
-  </si>
-  <si>
-    <t>who.witness</t>
-  </si>
-  <si>
-    <t>DiagnosticReport.performer.id</t>
-  </si>
-  <si>
-    <t xml:space="preserve">string
-</t>
-  </si>
-  <si>
-    <t>xml:id (or equivalent in JSON)</t>
-  </si>
-  <si>
-    <t>unique id for the element within a resource (for internal references). This may be any string value that does not contain spaces.</t>
-  </si>
-  <si>
-    <t>Element.id</t>
-  </si>
-  <si>
-    <t>n/a</t>
-  </si>
-  <si>
-    <t>DiagnosticReport.performer.extension</t>
-  </si>
-  <si>
-    <t>Additional Content defined by implementations</t>
-  </si>
-  <si>
-    <t>May be used to represent additional information that is not part of the basic definition of the element. In order to make the use of extensions safe and manageable, there is a strict set of governance  applied to the definition and use of extensions. Though any implementer is allowed to define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension.</t>
-  </si>
-  <si>
-    <t>Element.extension</t>
-  </si>
-  <si>
-    <t>DiagnosticReport.performer.modifierExtension</t>
-  </si>
-  <si>
-    <t>extensions
-user contentmodifiers</t>
-  </si>
-  <si>
-    <t>May be used to represent additional information that is not part of the basic definition of the element, and that modifies the understanding of the element that contains it. Usually modifier elements provide negation or qualification. In order to make the use of extensions safe and manageable, there is a strict set of governance applied to the definition and use of extensions. Though any implementer is allowed to define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension. Applications processing a resource are required to check for modifier extensions.</t>
-  </si>
-  <si>
-    <t>BackboneElement.modifierExtension</t>
-  </si>
-  <si>
-    <t>DiagnosticReport.performer.role</t>
-  </si>
-  <si>
-    <t>Type of performer</t>
-  </si>
-  <si>
-    <t>Describes the type of participation (e.g.  a responsible party, author, or verifier).</t>
-  </si>
-  <si>
-    <t>Indicate a role of diagnostic report performer</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/ValueSet/performer-role</t>
-  </si>
-  <si>
-    <t>Event.performer.role</t>
-  </si>
-  <si>
-    <t>.functionCode</t>
-  </si>
-  <si>
-    <t>DiagnosticReport.performer.actor</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Reference(Practitioner|Organization)
-</t>
-  </si>
-  <si>
-    <t>Practitioner or Organization  participant</t>
-  </si>
-  <si>
-    <t>The reference to the  practitioner or organization involved in producing the report. For example, the diagnostic service that is responsible for issuing the report.</t>
-  </si>
-  <si>
-    <t>This is not necessarily the source of the atomic data items. It is the entity that takes responsibility for the clinical report.</t>
-  </si>
-  <si>
-    <t>Need to know whom to contact if there are queries about the results. Also may need to track the source of reports for secondary data analysis.</t>
-  </si>
-  <si>
-    <t>Event.performer.actor</t>
-  </si>
-  <si>
-    <t>.role</t>
-  </si>
-  <si>
-    <t>DiagnosticReport.specimen</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Reference(Specimen)
-</t>
-  </si>
-  <si>
-    <t>Specimens this report is based on</t>
-  </si>
-  <si>
-    <t>Details about the specimens on which this diagnostic report is based.</t>
-  </si>
-  <si>
-    <t>If the specimen is sufficiently specified with a code in the test result name, then this additional data may be redundant. If there are multiple specimens, these may be represented per observation or group.</t>
-  </si>
-  <si>
-    <t>Need to be able to report information about the collected specimens on which the report is based.</t>
-  </si>
-  <si>
-    <t>SPM</t>
-  </si>
-  <si>
-    <t>DiagnosticReport.result</t>
-  </si>
-  <si>
-    <t>Data
-Atomic ValueResultAtomic resultDataTestAnalyteBatteryOrganizer</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Reference(Observation)
-</t>
-  </si>
-  <si>
-    <t>Observations - simple, or complex nested groups</t>
-  </si>
-  <si>
-    <t>Observations that are part of this diagnostic report. Observations can be simple name/value pairs (e.g. "atomic" results), or they can be grouping observations that include references to other members of the group (e.g. "panels").</t>
-  </si>
-  <si>
-    <t>Need to support individual results, or report groups of results, where the result grouping is arbitrary, but meaningful. This structure is recursive - observations can contain observations.</t>
-  </si>
-  <si>
-    <t>OBXs</t>
-  </si>
-  <si>
-    <t>outboundRelationship[typeCode=COMP].target</t>
-  </si>
-  <si>
-    <t>DiagnosticReport.result.id</t>
-  </si>
-  <si>
-    <t>DiagnosticReport.result.extension</t>
-  </si>
-  <si>
-    <t>Extensions are always sliced by (at least) url</t>
-  </si>
-  <si>
-    <t>note/text</t>
+    <t>Person making comment</t>
+  </si>
+  <si>
+    <t>An Extension</t>
+  </si>
+  <si>
+    <t>LAB DATA @PERSON 63-4:63.04-.99:63.041-1</t>
+  </si>
+  <si>
+    <t>note-text</t>
   </si>
   <si>
     <t>COMMENTS</t>
@@ -859,22 +875,6 @@
   </si>
   <si>
     <t>LAB DATA @COMMENTS 63-4:63.04-.99:63.041-.01</t>
-  </si>
-  <si>
-    <t>note/authorString</t>
-  </si>
-  <si>
-    <t>PERSON</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Extension {http://hl7.org/fhir/4.0/StructureDefinition/extension-Observation.note.authorString}
-</t>
-  </si>
-  <si>
-    <t>Person making comment</t>
-  </si>
-  <si>
-    <t>LAB DATA @PERSON 63-4:63.04-.99:63.041-1</t>
   </si>
   <si>
     <t>DiagnosticReport.result.reference</t>
@@ -1230,7 +1230,7 @@
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
     <col min="1" max="1" width="43.90234375" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="17.3046875" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="17.34765625" customWidth="true" bestFit="true"/>
     <col min="3" max="3" width="62.21875" customWidth="true" bestFit="true" hidden="true"/>
     <col min="4" max="4" width="11.7421875" customWidth="true" bestFit="true" hidden="true"/>
     <col min="5" max="5" width="4.9453125" customWidth="true" bestFit="true"/>
@@ -2195,7 +2195,7 @@
       </c>
       <c r="B9" s="2"/>
       <c r="C9" t="s" s="2">
-        <v>44</v>
+        <v>99</v>
       </c>
       <c r="D9" s="2"/>
       <c r="E9" t="s" s="2">
@@ -2214,15 +2214,17 @@
         <v>44</v>
       </c>
       <c r="J9" t="s" s="2">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="K9" t="s" s="2">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="L9" t="s" s="2">
-        <v>101</v>
-      </c>
-      <c r="M9" s="2"/>
+        <v>102</v>
+      </c>
+      <c r="M9" t="s" s="2">
+        <v>103</v>
+      </c>
       <c r="N9" s="2"/>
       <c r="O9" t="s" s="2">
         <v>44</v>
@@ -2259,14 +2261,16 @@
         <v>44</v>
       </c>
       <c r="AA9" t="s" s="2">
-        <v>102</v>
-      </c>
-      <c r="AB9" s="2"/>
+        <v>44</v>
+      </c>
+      <c r="AB9" t="s" s="2">
+        <v>44</v>
+      </c>
       <c r="AC9" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AD9" t="s" s="2">
-        <v>103</v>
+        <v>44</v>
       </c>
       <c r="AE9" t="s" s="2">
         <v>104</v>
@@ -2293,7 +2297,7 @@
         <v>44</v>
       </c>
       <c r="AM9" t="s" s="2">
-        <v>44</v>
+        <v>97</v>
       </c>
       <c r="AN9" t="s" s="2">
         <v>44</v>
@@ -2305,7 +2309,7 @@
       </c>
       <c r="B10" s="2"/>
       <c r="C10" t="s" s="2">
-        <v>106</v>
+        <v>99</v>
       </c>
       <c r="D10" s="2"/>
       <c r="E10" t="s" s="2">
@@ -2324,16 +2328,16 @@
         <v>44</v>
       </c>
       <c r="J10" t="s" s="2">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="K10" t="s" s="2">
+        <v>106</v>
+      </c>
+      <c r="L10" t="s" s="2">
         <v>107</v>
       </c>
-      <c r="L10" t="s" s="2">
-        <v>108</v>
-      </c>
       <c r="M10" t="s" s="2">
-        <v>109</v>
+        <v>103</v>
       </c>
       <c r="N10" s="2"/>
       <c r="O10" t="s" s="2">
@@ -2383,7 +2387,7 @@
         <v>44</v>
       </c>
       <c r="AE10" t="s" s="2">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="AF10" t="s" s="2">
         <v>42</v>
@@ -2415,11 +2419,11 @@
     </row>
     <row r="11" hidden="true">
       <c r="A11" t="s" s="2">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="B11" s="2"/>
       <c r="C11" t="s" s="2">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="D11" s="2"/>
       <c r="E11" t="s" s="2">
@@ -2438,19 +2442,19 @@
         <v>55</v>
       </c>
       <c r="J11" t="s" s="2">
+        <v>111</v>
+      </c>
+      <c r="K11" t="s" s="2">
+        <v>112</v>
+      </c>
+      <c r="L11" t="s" s="2">
         <v>113</v>
       </c>
-      <c r="K11" t="s" s="2">
+      <c r="M11" t="s" s="2">
         <v>114</v>
       </c>
-      <c r="L11" t="s" s="2">
+      <c r="N11" t="s" s="2">
         <v>115</v>
-      </c>
-      <c r="M11" t="s" s="2">
-        <v>116</v>
-      </c>
-      <c r="N11" t="s" s="2">
-        <v>117</v>
       </c>
       <c r="O11" t="s" s="2">
         <v>44</v>
@@ -2499,7 +2503,7 @@
         <v>44</v>
       </c>
       <c r="AE11" t="s" s="2">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="AF11" t="s" s="2">
         <v>42</v>
@@ -2517,25 +2521,25 @@
         <v>44</v>
       </c>
       <c r="AK11" t="s" s="2">
+        <v>116</v>
+      </c>
+      <c r="AL11" t="s" s="2">
+        <v>117</v>
+      </c>
+      <c r="AM11" t="s" s="2">
         <v>118</v>
       </c>
-      <c r="AL11" t="s" s="2">
-        <v>119</v>
-      </c>
-      <c r="AM11" t="s" s="2">
-        <v>120</v>
-      </c>
       <c r="AN11" t="s" s="2">
-        <v>120</v>
+        <v>118</v>
       </c>
     </row>
     <row r="12" hidden="true">
       <c r="A12" t="s" s="2">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="B12" s="2"/>
       <c r="C12" t="s" s="2">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="D12" s="2"/>
       <c r="E12" t="s" s="2">
@@ -2554,19 +2558,19 @@
         <v>44</v>
       </c>
       <c r="J12" t="s" s="2">
+        <v>121</v>
+      </c>
+      <c r="K12" t="s" s="2">
+        <v>122</v>
+      </c>
+      <c r="L12" t="s" s="2">
         <v>123</v>
       </c>
-      <c r="K12" t="s" s="2">
+      <c r="M12" t="s" s="2">
         <v>124</v>
       </c>
-      <c r="L12" t="s" s="2">
+      <c r="N12" t="s" s="2">
         <v>125</v>
-      </c>
-      <c r="M12" t="s" s="2">
-        <v>126</v>
-      </c>
-      <c r="N12" t="s" s="2">
-        <v>127</v>
       </c>
       <c r="O12" t="s" s="2">
         <v>44</v>
@@ -2615,7 +2619,7 @@
         <v>44</v>
       </c>
       <c r="AE12" t="s" s="2">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="AF12" t="s" s="2">
         <v>42</v>
@@ -2633,13 +2637,13 @@
         <v>44</v>
       </c>
       <c r="AK12" t="s" s="2">
+        <v>126</v>
+      </c>
+      <c r="AL12" t="s" s="2">
+        <v>127</v>
+      </c>
+      <c r="AM12" t="s" s="2">
         <v>128</v>
-      </c>
-      <c r="AL12" t="s" s="2">
-        <v>129</v>
-      </c>
-      <c r="AM12" t="s" s="2">
-        <v>130</v>
       </c>
       <c r="AN12" t="s" s="2">
         <v>44</v>
@@ -2647,7 +2651,7 @@
     </row>
     <row r="13" hidden="true">
       <c r="A13" t="s" s="2">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="B13" s="2"/>
       <c r="C13" t="s" s="2">
@@ -2673,16 +2677,16 @@
         <v>73</v>
       </c>
       <c r="K13" t="s" s="2">
+        <v>130</v>
+      </c>
+      <c r="L13" t="s" s="2">
+        <v>131</v>
+      </c>
+      <c r="M13" t="s" s="2">
         <v>132</v>
       </c>
-      <c r="L13" t="s" s="2">
+      <c r="N13" t="s" s="2">
         <v>133</v>
-      </c>
-      <c r="M13" t="s" s="2">
-        <v>134</v>
-      </c>
-      <c r="N13" t="s" s="2">
-        <v>135</v>
       </c>
       <c r="O13" t="s" s="2">
         <v>44</v>
@@ -2707,13 +2711,13 @@
         <v>44</v>
       </c>
       <c r="W13" t="s" s="2">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="X13" t="s" s="2">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="Y13" t="s" s="2">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="Z13" t="s" s="2">
         <v>44</v>
@@ -2731,7 +2735,7 @@
         <v>44</v>
       </c>
       <c r="AE13" t="s" s="2">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="AF13" t="s" s="2">
         <v>54</v>
@@ -2749,25 +2753,25 @@
         <v>44</v>
       </c>
       <c r="AK13" t="s" s="2">
+        <v>136</v>
+      </c>
+      <c r="AL13" t="s" s="2">
+        <v>137</v>
+      </c>
+      <c r="AM13" t="s" s="2">
         <v>138</v>
       </c>
-      <c r="AL13" t="s" s="2">
+      <c r="AN13" t="s" s="2">
         <v>139</v>
-      </c>
-      <c r="AM13" t="s" s="2">
-        <v>140</v>
-      </c>
-      <c r="AN13" t="s" s="2">
-        <v>141</v>
       </c>
     </row>
     <row r="14" hidden="true">
       <c r="A14" t="s" s="2">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="B14" s="2"/>
       <c r="C14" t="s" s="2">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="D14" s="2"/>
       <c r="E14" t="s" s="2">
@@ -2786,16 +2790,16 @@
         <v>55</v>
       </c>
       <c r="J14" t="s" s="2">
+        <v>142</v>
+      </c>
+      <c r="K14" t="s" s="2">
+        <v>143</v>
+      </c>
+      <c r="L14" t="s" s="2">
         <v>144</v>
       </c>
-      <c r="K14" t="s" s="2">
+      <c r="M14" t="s" s="2">
         <v>145</v>
-      </c>
-      <c r="L14" t="s" s="2">
-        <v>146</v>
-      </c>
-      <c r="M14" t="s" s="2">
-        <v>147</v>
       </c>
       <c r="N14" s="2"/>
       <c r="O14" t="s" s="2">
@@ -2821,14 +2825,14 @@
         <v>44</v>
       </c>
       <c r="W14" t="s" s="2">
+        <v>146</v>
+      </c>
+      <c r="X14" t="s" s="2">
+        <v>147</v>
+      </c>
+      <c r="Y14" t="s" s="2">
         <v>148</v>
       </c>
-      <c r="X14" t="s" s="2">
-        <v>149</v>
-      </c>
-      <c r="Y14" t="s" s="2">
-        <v>150</v>
-      </c>
       <c r="Z14" t="s" s="2">
         <v>44</v>
       </c>
@@ -2845,7 +2849,7 @@
         <v>44</v>
       </c>
       <c r="AE14" t="s" s="2">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="AF14" t="s" s="2">
         <v>42</v>
@@ -2866,22 +2870,22 @@
         <v>44</v>
       </c>
       <c r="AL14" t="s" s="2">
+        <v>149</v>
+      </c>
+      <c r="AM14" t="s" s="2">
+        <v>150</v>
+      </c>
+      <c r="AN14" t="s" s="2">
         <v>151</v>
-      </c>
-      <c r="AM14" t="s" s="2">
-        <v>152</v>
-      </c>
-      <c r="AN14" t="s" s="2">
-        <v>153</v>
       </c>
     </row>
     <row r="15" hidden="true">
       <c r="A15" t="s" s="2">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="B15" s="2"/>
       <c r="C15" t="s" s="2">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="D15" s="2"/>
       <c r="E15" t="s" s="2">
@@ -2900,13 +2904,13 @@
         <v>55</v>
       </c>
       <c r="J15" t="s" s="2">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="K15" t="s" s="2">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="L15" t="s" s="2">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="M15" s="2"/>
       <c r="N15" s="2"/>
@@ -2933,14 +2937,14 @@
         <v>44</v>
       </c>
       <c r="W15" t="s" s="2">
+        <v>156</v>
+      </c>
+      <c r="X15" t="s" s="2">
+        <v>157</v>
+      </c>
+      <c r="Y15" t="s" s="2">
         <v>158</v>
       </c>
-      <c r="X15" t="s" s="2">
-        <v>159</v>
-      </c>
-      <c r="Y15" t="s" s="2">
-        <v>160</v>
-      </c>
       <c r="Z15" t="s" s="2">
         <v>44</v>
       </c>
@@ -2957,7 +2961,7 @@
         <v>44</v>
       </c>
       <c r="AE15" t="s" s="2">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="AF15" t="s" s="2">
         <v>54</v>
@@ -2975,25 +2979,25 @@
         <v>44</v>
       </c>
       <c r="AK15" t="s" s="2">
+        <v>159</v>
+      </c>
+      <c r="AL15" t="s" s="2">
+        <v>160</v>
+      </c>
+      <c r="AM15" t="s" s="2">
         <v>161</v>
       </c>
-      <c r="AL15" t="s" s="2">
+      <c r="AN15" t="s" s="2">
         <v>162</v>
-      </c>
-      <c r="AM15" t="s" s="2">
-        <v>163</v>
-      </c>
-      <c r="AN15" t="s" s="2">
-        <v>164</v>
       </c>
     </row>
     <row r="16" hidden="true">
       <c r="A16" t="s" s="2">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="B16" s="2"/>
       <c r="C16" t="s" s="2">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="D16" s="2"/>
       <c r="E16" t="s" s="2">
@@ -3012,17 +3016,17 @@
         <v>55</v>
       </c>
       <c r="J16" t="s" s="2">
+        <v>165</v>
+      </c>
+      <c r="K16" t="s" s="2">
+        <v>166</v>
+      </c>
+      <c r="L16" t="s" s="2">
         <v>167</v>
-      </c>
-      <c r="K16" t="s" s="2">
-        <v>168</v>
-      </c>
-      <c r="L16" t="s" s="2">
-        <v>169</v>
       </c>
       <c r="M16" s="2"/>
       <c r="N16" t="s" s="2">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="O16" t="s" s="2">
         <v>44</v>
@@ -3071,7 +3075,7 @@
         <v>44</v>
       </c>
       <c r="AE16" t="s" s="2">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="AF16" t="s" s="2">
         <v>42</v>
@@ -3089,25 +3093,25 @@
         <v>44</v>
       </c>
       <c r="AK16" t="s" s="2">
+        <v>169</v>
+      </c>
+      <c r="AL16" t="s" s="2">
+        <v>170</v>
+      </c>
+      <c r="AM16" t="s" s="2">
         <v>171</v>
       </c>
-      <c r="AL16" t="s" s="2">
+      <c r="AN16" t="s" s="2">
         <v>172</v>
-      </c>
-      <c r="AM16" t="s" s="2">
-        <v>173</v>
-      </c>
-      <c r="AN16" t="s" s="2">
-        <v>174</v>
       </c>
     </row>
     <row r="17" hidden="true">
       <c r="A17" t="s" s="2">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="B17" s="2"/>
       <c r="C17" t="s" s="2">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="D17" s="2"/>
       <c r="E17" t="s" s="2">
@@ -3126,19 +3130,19 @@
         <v>55</v>
       </c>
       <c r="J17" t="s" s="2">
+        <v>175</v>
+      </c>
+      <c r="K17" t="s" s="2">
+        <v>176</v>
+      </c>
+      <c r="L17" t="s" s="2">
         <v>177</v>
       </c>
-      <c r="K17" t="s" s="2">
+      <c r="M17" t="s" s="2">
         <v>178</v>
       </c>
-      <c r="L17" t="s" s="2">
+      <c r="N17" t="s" s="2">
         <v>179</v>
-      </c>
-      <c r="M17" t="s" s="2">
-        <v>180</v>
-      </c>
-      <c r="N17" t="s" s="2">
-        <v>181</v>
       </c>
       <c r="O17" t="s" s="2">
         <v>44</v>
@@ -3187,7 +3191,7 @@
         <v>44</v>
       </c>
       <c r="AE17" t="s" s="2">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="AF17" t="s" s="2">
         <v>42</v>
@@ -3205,25 +3209,25 @@
         <v>44</v>
       </c>
       <c r="AK17" t="s" s="2">
+        <v>180</v>
+      </c>
+      <c r="AL17" t="s" s="2">
+        <v>181</v>
+      </c>
+      <c r="AM17" t="s" s="2">
         <v>182</v>
       </c>
-      <c r="AL17" t="s" s="2">
+      <c r="AN17" t="s" s="2">
         <v>183</v>
-      </c>
-      <c r="AM17" t="s" s="2">
-        <v>184</v>
-      </c>
-      <c r="AN17" t="s" s="2">
-        <v>185</v>
       </c>
     </row>
     <row r="18" hidden="true">
       <c r="A18" t="s" s="2">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="B18" s="2"/>
       <c r="C18" t="s" s="2">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="D18" s="2"/>
       <c r="E18" t="s" s="2">
@@ -3242,19 +3246,19 @@
         <v>55</v>
       </c>
       <c r="J18" t="s" s="2">
+        <v>186</v>
+      </c>
+      <c r="K18" t="s" s="2">
+        <v>187</v>
+      </c>
+      <c r="L18" t="s" s="2">
         <v>188</v>
       </c>
-      <c r="K18" t="s" s="2">
+      <c r="M18" t="s" s="2">
         <v>189</v>
       </c>
-      <c r="L18" t="s" s="2">
+      <c r="N18" t="s" s="2">
         <v>190</v>
-      </c>
-      <c r="M18" t="s" s="2">
-        <v>191</v>
-      </c>
-      <c r="N18" t="s" s="2">
-        <v>192</v>
       </c>
       <c r="O18" t="s" s="2">
         <v>44</v>
@@ -3303,7 +3307,7 @@
         <v>44</v>
       </c>
       <c r="AE18" t="s" s="2">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="AF18" t="s" s="2">
         <v>42</v>
@@ -3321,25 +3325,25 @@
         <v>44</v>
       </c>
       <c r="AK18" t="s" s="2">
+        <v>191</v>
+      </c>
+      <c r="AL18" t="s" s="2">
+        <v>192</v>
+      </c>
+      <c r="AM18" t="s" s="2">
         <v>193</v>
       </c>
-      <c r="AL18" t="s" s="2">
+      <c r="AN18" t="s" s="2">
         <v>194</v>
-      </c>
-      <c r="AM18" t="s" s="2">
-        <v>195</v>
-      </c>
-      <c r="AN18" t="s" s="2">
-        <v>196</v>
       </c>
     </row>
     <row r="19" hidden="true">
       <c r="A19" t="s" s="2">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="B19" s="2"/>
       <c r="C19" t="s" s="2">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="D19" s="2"/>
       <c r="E19" t="s" s="2">
@@ -3358,19 +3362,19 @@
         <v>55</v>
       </c>
       <c r="J19" t="s" s="2">
+        <v>197</v>
+      </c>
+      <c r="K19" t="s" s="2">
+        <v>198</v>
+      </c>
+      <c r="L19" t="s" s="2">
         <v>199</v>
       </c>
-      <c r="K19" t="s" s="2">
+      <c r="M19" t="s" s="2">
         <v>200</v>
       </c>
-      <c r="L19" t="s" s="2">
+      <c r="N19" t="s" s="2">
         <v>201</v>
-      </c>
-      <c r="M19" t="s" s="2">
-        <v>202</v>
-      </c>
-      <c r="N19" t="s" s="2">
-        <v>203</v>
       </c>
       <c r="O19" t="s" s="2">
         <v>44</v>
@@ -3419,7 +3423,7 @@
         <v>44</v>
       </c>
       <c r="AE19" t="s" s="2">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="AF19" t="s" s="2">
         <v>42</v>
@@ -3440,22 +3444,22 @@
         <v>44</v>
       </c>
       <c r="AL19" t="s" s="2">
+        <v>202</v>
+      </c>
+      <c r="AM19" t="s" s="2">
+        <v>203</v>
+      </c>
+      <c r="AN19" t="s" s="2">
         <v>204</v>
-      </c>
-      <c r="AM19" t="s" s="2">
-        <v>205</v>
-      </c>
-      <c r="AN19" t="s" s="2">
-        <v>206</v>
       </c>
     </row>
     <row r="20" hidden="true">
       <c r="A20" t="s" s="2">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="B20" s="2"/>
       <c r="C20" t="s" s="2">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="D20" s="2"/>
       <c r="E20" t="s" s="2">
@@ -3474,13 +3478,13 @@
         <v>55</v>
       </c>
       <c r="J20" t="s" s="2">
+        <v>207</v>
+      </c>
+      <c r="K20" t="s" s="2">
+        <v>208</v>
+      </c>
+      <c r="L20" t="s" s="2">
         <v>209</v>
-      </c>
-      <c r="K20" t="s" s="2">
-        <v>210</v>
-      </c>
-      <c r="L20" t="s" s="2">
-        <v>211</v>
       </c>
       <c r="M20" s="2"/>
       <c r="N20" s="2"/>
@@ -3531,7 +3535,7 @@
         <v>44</v>
       </c>
       <c r="AE20" t="s" s="2">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="AF20" t="s" s="2">
         <v>42</v>
@@ -3543,27 +3547,27 @@
         <v>44</v>
       </c>
       <c r="AI20" t="s" s="2">
+        <v>210</v>
+      </c>
+      <c r="AJ20" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AK20" t="s" s="2">
+        <v>211</v>
+      </c>
+      <c r="AL20" t="s" s="2">
         <v>212</v>
       </c>
-      <c r="AJ20" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AK20" t="s" s="2">
+      <c r="AM20" t="s" s="2">
         <v>213</v>
       </c>
-      <c r="AL20" t="s" s="2">
+      <c r="AN20" t="s" s="2">
         <v>214</v>
-      </c>
-      <c r="AM20" t="s" s="2">
-        <v>215</v>
-      </c>
-      <c r="AN20" t="s" s="2">
-        <v>216</v>
       </c>
     </row>
     <row r="21" hidden="true">
       <c r="A21" t="s" s="2">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="B21" s="2"/>
       <c r="C21" t="s" s="2">
@@ -3586,13 +3590,13 @@
         <v>44</v>
       </c>
       <c r="J21" t="s" s="2">
+        <v>216</v>
+      </c>
+      <c r="K21" t="s" s="2">
+        <v>217</v>
+      </c>
+      <c r="L21" t="s" s="2">
         <v>218</v>
-      </c>
-      <c r="K21" t="s" s="2">
-        <v>219</v>
-      </c>
-      <c r="L21" t="s" s="2">
-        <v>220</v>
       </c>
       <c r="M21" s="2"/>
       <c r="N21" s="2"/>
@@ -3643,7 +3647,7 @@
         <v>44</v>
       </c>
       <c r="AE21" t="s" s="2">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="AF21" t="s" s="2">
         <v>42</v>
@@ -3667,7 +3671,7 @@
         <v>44</v>
       </c>
       <c r="AM21" t="s" s="2">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="AN21" t="s" s="2">
         <v>44</v>
@@ -3675,11 +3679,11 @@
     </row>
     <row r="22" hidden="true">
       <c r="A22" t="s" s="2">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="B22" s="2"/>
       <c r="C22" t="s" s="2">
-        <v>106</v>
+        <v>99</v>
       </c>
       <c r="D22" s="2"/>
       <c r="E22" t="s" s="2">
@@ -3698,16 +3702,16 @@
         <v>44</v>
       </c>
       <c r="J22" t="s" s="2">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="K22" t="s" s="2">
-        <v>224</v>
+        <v>101</v>
       </c>
       <c r="L22" t="s" s="2">
-        <v>225</v>
+        <v>222</v>
       </c>
       <c r="M22" t="s" s="2">
-        <v>109</v>
+        <v>103</v>
       </c>
       <c r="N22" s="2"/>
       <c r="O22" t="s" s="2">
@@ -3757,7 +3761,7 @@
         <v>44</v>
       </c>
       <c r="AE22" t="s" s="2">
-        <v>226</v>
+        <v>223</v>
       </c>
       <c r="AF22" t="s" s="2">
         <v>42</v>
@@ -3781,7 +3785,7 @@
         <v>44</v>
       </c>
       <c r="AM22" t="s" s="2">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="AN22" t="s" s="2">
         <v>44</v>
@@ -3789,11 +3793,11 @@
     </row>
     <row r="23" hidden="true">
       <c r="A23" t="s" s="2">
-        <v>227</v>
+        <v>224</v>
       </c>
       <c r="B23" s="2"/>
       <c r="C23" t="s" s="2">
-        <v>228</v>
+        <v>225</v>
       </c>
       <c r="D23" s="2"/>
       <c r="E23" t="s" s="2">
@@ -3812,16 +3816,16 @@
         <v>55</v>
       </c>
       <c r="J23" t="s" s="2">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="K23" t="s" s="2">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="L23" t="s" s="2">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="M23" t="s" s="2">
-        <v>109</v>
+        <v>103</v>
       </c>
       <c r="N23" s="2"/>
       <c r="O23" t="s" s="2">
@@ -3871,7 +3875,7 @@
         <v>44</v>
       </c>
       <c r="AE23" t="s" s="2">
-        <v>230</v>
+        <v>227</v>
       </c>
       <c r="AF23" t="s" s="2">
         <v>42</v>
@@ -3903,7 +3907,7 @@
     </row>
     <row r="24" hidden="true">
       <c r="A24" t="s" s="2">
-        <v>231</v>
+        <v>228</v>
       </c>
       <c r="B24" s="2"/>
       <c r="C24" t="s" s="2">
@@ -3926,13 +3930,13 @@
         <v>55</v>
       </c>
       <c r="J24" t="s" s="2">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="K24" t="s" s="2">
-        <v>232</v>
+        <v>229</v>
       </c>
       <c r="L24" t="s" s="2">
-        <v>233</v>
+        <v>230</v>
       </c>
       <c r="M24" s="2"/>
       <c r="N24" s="2"/>
@@ -3959,13 +3963,13 @@
         <v>44</v>
       </c>
       <c r="W24" t="s" s="2">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="X24" t="s" s="2">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="Y24" t="s" s="2">
-        <v>235</v>
+        <v>232</v>
       </c>
       <c r="Z24" t="s" s="2">
         <v>44</v>
@@ -3983,7 +3987,7 @@
         <v>44</v>
       </c>
       <c r="AE24" t="s" s="2">
-        <v>231</v>
+        <v>228</v>
       </c>
       <c r="AF24" t="s" s="2">
         <v>42</v>
@@ -4001,13 +4005,13 @@
         <v>44</v>
       </c>
       <c r="AK24" t="s" s="2">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="AL24" t="s" s="2">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="AM24" t="s" s="2">
-        <v>237</v>
+        <v>234</v>
       </c>
       <c r="AN24" t="s" s="2">
         <v>44</v>
@@ -4015,7 +4019,7 @@
     </row>
     <row r="25" hidden="true">
       <c r="A25" t="s" s="2">
-        <v>238</v>
+        <v>235</v>
       </c>
       <c r="B25" s="2"/>
       <c r="C25" t="s" s="2">
@@ -4038,19 +4042,19 @@
         <v>55</v>
       </c>
       <c r="J25" t="s" s="2">
+        <v>236</v>
+      </c>
+      <c r="K25" t="s" s="2">
+        <v>237</v>
+      </c>
+      <c r="L25" t="s" s="2">
+        <v>238</v>
+      </c>
+      <c r="M25" t="s" s="2">
         <v>239</v>
       </c>
-      <c r="K25" t="s" s="2">
+      <c r="N25" t="s" s="2">
         <v>240</v>
-      </c>
-      <c r="L25" t="s" s="2">
-        <v>241</v>
-      </c>
-      <c r="M25" t="s" s="2">
-        <v>242</v>
-      </c>
-      <c r="N25" t="s" s="2">
-        <v>243</v>
       </c>
       <c r="O25" t="s" s="2">
         <v>44</v>
@@ -4099,7 +4103,7 @@
         <v>44</v>
       </c>
       <c r="AE25" t="s" s="2">
-        <v>238</v>
+        <v>235</v>
       </c>
       <c r="AF25" t="s" s="2">
         <v>54</v>
@@ -4117,13 +4121,13 @@
         <v>44</v>
       </c>
       <c r="AK25" t="s" s="2">
-        <v>244</v>
+        <v>241</v>
       </c>
       <c r="AL25" t="s" s="2">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="AM25" t="s" s="2">
-        <v>245</v>
+        <v>242</v>
       </c>
       <c r="AN25" t="s" s="2">
         <v>44</v>
@@ -4131,7 +4135,7 @@
     </row>
     <row r="26" hidden="true">
       <c r="A26" t="s" s="2">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="B26" s="2"/>
       <c r="C26" t="s" s="2">
@@ -4154,19 +4158,19 @@
         <v>44</v>
       </c>
       <c r="J26" t="s" s="2">
+        <v>244</v>
+      </c>
+      <c r="K26" t="s" s="2">
+        <v>245</v>
+      </c>
+      <c r="L26" t="s" s="2">
+        <v>246</v>
+      </c>
+      <c r="M26" t="s" s="2">
         <v>247</v>
       </c>
-      <c r="K26" t="s" s="2">
+      <c r="N26" t="s" s="2">
         <v>248</v>
-      </c>
-      <c r="L26" t="s" s="2">
-        <v>249</v>
-      </c>
-      <c r="M26" t="s" s="2">
-        <v>250</v>
-      </c>
-      <c r="N26" t="s" s="2">
-        <v>251</v>
       </c>
       <c r="O26" t="s" s="2">
         <v>44</v>
@@ -4215,7 +4219,7 @@
         <v>44</v>
       </c>
       <c r="AE26" t="s" s="2">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="AF26" t="s" s="2">
         <v>42</v>
@@ -4236,10 +4240,10 @@
         <v>44</v>
       </c>
       <c r="AL26" t="s" s="2">
-        <v>252</v>
+        <v>249</v>
       </c>
       <c r="AM26" t="s" s="2">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="AN26" t="s" s="2">
         <v>44</v>
@@ -4247,11 +4251,11 @@
     </row>
     <row r="27" hidden="true">
       <c r="A27" t="s" s="2">
-        <v>253</v>
+        <v>250</v>
       </c>
       <c r="B27" s="2"/>
       <c r="C27" t="s" s="2">
-        <v>254</v>
+        <v>251</v>
       </c>
       <c r="D27" s="2"/>
       <c r="E27" t="s" s="2">
@@ -4270,17 +4274,17 @@
         <v>44</v>
       </c>
       <c r="J27" t="s" s="2">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="K27" t="s" s="2">
-        <v>256</v>
+        <v>253</v>
       </c>
       <c r="L27" t="s" s="2">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="M27" s="2"/>
       <c r="N27" t="s" s="2">
-        <v>258</v>
+        <v>255</v>
       </c>
       <c r="O27" t="s" s="2">
         <v>44</v>
@@ -4329,7 +4333,7 @@
         <v>44</v>
       </c>
       <c r="AE27" t="s" s="2">
-        <v>253</v>
+        <v>250</v>
       </c>
       <c r="AF27" t="s" s="2">
         <v>42</v>
@@ -4350,10 +4354,10 @@
         <v>44</v>
       </c>
       <c r="AL27" t="s" s="2">
-        <v>259</v>
+        <v>256</v>
       </c>
       <c r="AM27" t="s" s="2">
-        <v>260</v>
+        <v>257</v>
       </c>
       <c r="AN27" t="s" s="2">
         <v>44</v>
@@ -4361,7 +4365,7 @@
     </row>
     <row r="28" hidden="true">
       <c r="A28" t="s" s="2">
-        <v>261</v>
+        <v>258</v>
       </c>
       <c r="B28" s="2"/>
       <c r="C28" t="s" s="2">
@@ -4384,13 +4388,13 @@
         <v>44</v>
       </c>
       <c r="J28" t="s" s="2">
+        <v>216</v>
+      </c>
+      <c r="K28" t="s" s="2">
+        <v>217</v>
+      </c>
+      <c r="L28" t="s" s="2">
         <v>218</v>
-      </c>
-      <c r="K28" t="s" s="2">
-        <v>219</v>
-      </c>
-      <c r="L28" t="s" s="2">
-        <v>220</v>
       </c>
       <c r="M28" s="2"/>
       <c r="N28" s="2"/>
@@ -4441,7 +4445,7 @@
         <v>44</v>
       </c>
       <c r="AE28" t="s" s="2">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="AF28" t="s" s="2">
         <v>42</v>
@@ -4465,7 +4469,7 @@
         <v>44</v>
       </c>
       <c r="AM28" t="s" s="2">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="AN28" t="s" s="2">
         <v>44</v>
@@ -4473,11 +4477,11 @@
     </row>
     <row r="29" hidden="true">
       <c r="A29" t="s" s="2">
-        <v>262</v>
+        <v>259</v>
       </c>
       <c r="B29" s="2"/>
       <c r="C29" t="s" s="2">
-        <v>106</v>
+        <v>99</v>
       </c>
       <c r="D29" s="2"/>
       <c r="E29" t="s" s="2">
@@ -4496,16 +4500,16 @@
         <v>44</v>
       </c>
       <c r="J29" t="s" s="2">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="K29" t="s" s="2">
-        <v>224</v>
+        <v>101</v>
       </c>
       <c r="L29" t="s" s="2">
-        <v>225</v>
+        <v>222</v>
       </c>
       <c r="M29" t="s" s="2">
-        <v>109</v>
+        <v>103</v>
       </c>
       <c r="N29" s="2"/>
       <c r="O29" t="s" s="2">
@@ -4543,19 +4547,19 @@
         <v>44</v>
       </c>
       <c r="AA29" t="s" s="2">
-        <v>102</v>
+        <v>260</v>
       </c>
       <c r="AB29" t="s" s="2">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="AC29" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AD29" t="s" s="2">
-        <v>103</v>
+        <v>262</v>
       </c>
       <c r="AE29" t="s" s="2">
-        <v>226</v>
+        <v>223</v>
       </c>
       <c r="AF29" t="s" s="2">
         <v>42</v>
@@ -4579,7 +4583,7 @@
         <v>44</v>
       </c>
       <c r="AM29" t="s" s="2">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="AN29" t="s" s="2">
         <v>44</v>
@@ -4587,16 +4591,16 @@
     </row>
     <row r="30">
       <c r="A30" t="s" s="2">
-        <v>262</v>
+        <v>259</v>
       </c>
       <c r="B30" t="s" s="2">
+        <v>263</v>
+      </c>
+      <c r="C30" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="D30" t="s" s="2">
         <v>264</v>
-      </c>
-      <c r="C30" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="D30" t="s" s="2">
-        <v>265</v>
       </c>
       <c r="E30" t="s" s="2">
         <v>42</v>
@@ -4614,13 +4618,13 @@
         <v>44</v>
       </c>
       <c r="J30" t="s" s="2">
+        <v>265</v>
+      </c>
+      <c r="K30" t="s" s="2">
         <v>266</v>
       </c>
-      <c r="K30" t="s" s="2">
-        <v>12</v>
-      </c>
       <c r="L30" t="s" s="2">
-        <v>101</v>
+        <v>267</v>
       </c>
       <c r="M30" s="2"/>
       <c r="N30" s="2"/>
@@ -4671,7 +4675,7 @@
         <v>44</v>
       </c>
       <c r="AE30" t="s" s="2">
-        <v>226</v>
+        <v>223</v>
       </c>
       <c r="AF30" t="s" s="2">
         <v>42</v>
@@ -4686,7 +4690,7 @@
         <v>44</v>
       </c>
       <c r="AJ30" t="s" s="2">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="AK30" t="s" s="2">
         <v>44</v>
@@ -4703,16 +4707,16 @@
     </row>
     <row r="31">
       <c r="A31" t="s" s="2">
-        <v>262</v>
+        <v>259</v>
       </c>
       <c r="B31" t="s" s="2">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="C31" t="s" s="2">
         <v>44</v>
       </c>
       <c r="D31" t="s" s="2">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="E31" t="s" s="2">
         <v>42</v>
@@ -4730,13 +4734,13 @@
         <v>44</v>
       </c>
       <c r="J31" t="s" s="2">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="K31" t="s" s="2">
-        <v>271</v>
+        <v>12</v>
       </c>
       <c r="L31" t="s" s="2">
-        <v>101</v>
+        <v>267</v>
       </c>
       <c r="M31" s="2"/>
       <c r="N31" s="2"/>
@@ -4787,7 +4791,7 @@
         <v>44</v>
       </c>
       <c r="AE31" t="s" s="2">
-        <v>226</v>
+        <v>223</v>
       </c>
       <c r="AF31" t="s" s="2">
         <v>42</v>
@@ -4842,7 +4846,7 @@
         <v>55</v>
       </c>
       <c r="J32" t="s" s="2">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="K32" t="s" s="2">
         <v>274</v>
@@ -4956,7 +4960,7 @@
         <v>55</v>
       </c>
       <c r="J33" t="s" s="2">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="K33" t="s" s="2">
         <v>280</v>
@@ -5070,7 +5074,7 @@
         <v>55</v>
       </c>
       <c r="J34" t="s" s="2">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="K34" t="s" s="2">
         <v>286</v>
@@ -5298,7 +5302,7 @@
         <v>55</v>
       </c>
       <c r="J36" t="s" s="2">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="K36" t="s" s="2">
         <v>298</v>
@@ -5369,7 +5373,7 @@
         <v>44</v>
       </c>
       <c r="AI36" t="s" s="2">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="AJ36" t="s" s="2">
         <v>44</v>
@@ -5381,7 +5385,7 @@
         <v>301</v>
       </c>
       <c r="AM36" t="s" s="2">
-        <v>260</v>
+        <v>257</v>
       </c>
       <c r="AN36" t="s" s="2">
         <v>44</v>
@@ -5412,13 +5416,13 @@
         <v>44</v>
       </c>
       <c r="J37" t="s" s="2">
+        <v>216</v>
+      </c>
+      <c r="K37" t="s" s="2">
+        <v>217</v>
+      </c>
+      <c r="L37" t="s" s="2">
         <v>218</v>
-      </c>
-      <c r="K37" t="s" s="2">
-        <v>219</v>
-      </c>
-      <c r="L37" t="s" s="2">
-        <v>220</v>
       </c>
       <c r="M37" s="2"/>
       <c r="N37" s="2"/>
@@ -5469,7 +5473,7 @@
         <v>44</v>
       </c>
       <c r="AE37" t="s" s="2">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="AF37" t="s" s="2">
         <v>42</v>
@@ -5493,7 +5497,7 @@
         <v>44</v>
       </c>
       <c r="AM37" t="s" s="2">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="AN37" t="s" s="2">
         <v>44</v>
@@ -5505,7 +5509,7 @@
       </c>
       <c r="B38" s="2"/>
       <c r="C38" t="s" s="2">
-        <v>106</v>
+        <v>99</v>
       </c>
       <c r="D38" s="2"/>
       <c r="E38" t="s" s="2">
@@ -5524,16 +5528,16 @@
         <v>44</v>
       </c>
       <c r="J38" t="s" s="2">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="K38" t="s" s="2">
-        <v>224</v>
+        <v>101</v>
       </c>
       <c r="L38" t="s" s="2">
-        <v>225</v>
+        <v>222</v>
       </c>
       <c r="M38" t="s" s="2">
-        <v>109</v>
+        <v>103</v>
       </c>
       <c r="N38" s="2"/>
       <c r="O38" t="s" s="2">
@@ -5583,7 +5587,7 @@
         <v>44</v>
       </c>
       <c r="AE38" t="s" s="2">
-        <v>226</v>
+        <v>223</v>
       </c>
       <c r="AF38" t="s" s="2">
         <v>42</v>
@@ -5607,7 +5611,7 @@
         <v>44</v>
       </c>
       <c r="AM38" t="s" s="2">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="AN38" t="s" s="2">
         <v>44</v>
@@ -5619,7 +5623,7 @@
       </c>
       <c r="B39" s="2"/>
       <c r="C39" t="s" s="2">
-        <v>228</v>
+        <v>225</v>
       </c>
       <c r="D39" s="2"/>
       <c r="E39" t="s" s="2">
@@ -5638,16 +5642,16 @@
         <v>55</v>
       </c>
       <c r="J39" t="s" s="2">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="K39" t="s" s="2">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="L39" t="s" s="2">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="M39" t="s" s="2">
-        <v>109</v>
+        <v>103</v>
       </c>
       <c r="N39" s="2"/>
       <c r="O39" t="s" s="2">
@@ -5697,7 +5701,7 @@
         <v>44</v>
       </c>
       <c r="AE39" t="s" s="2">
-        <v>230</v>
+        <v>227</v>
       </c>
       <c r="AF39" t="s" s="2">
         <v>42</v>
@@ -5752,7 +5756,7 @@
         <v>44</v>
       </c>
       <c r="J40" t="s" s="2">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="K40" t="s" s="2">
         <v>306</v>
@@ -5980,7 +5984,7 @@
         <v>44</v>
       </c>
       <c r="J42" t="s" s="2">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="K42" t="s" s="2">
         <v>318</v>
@@ -6094,7 +6098,7 @@
         <v>44</v>
       </c>
       <c r="J43" t="s" s="2">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="K43" t="s" s="2">
         <v>324</v>
@@ -6127,7 +6131,7 @@
         <v>44</v>
       </c>
       <c r="W43" t="s" s="2">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="X43" t="s" s="2">
         <v>326</v>

--- a/docs/StructureDefinition-VAChemLabReportResult.xlsx
+++ b/docs/StructureDefinition-VAChemLabReportResult.xlsx
@@ -851,14 +851,14 @@
     <t>PERSON</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {http://hl7.org/fhir/4.0/StructureDefinition/extension-Observation.note.authorString}
+    <t xml:space="preserve">Extension {http://va.gov/fhir/us/vha-ampl-ig/StructureDefinition/note.authorString}
 </t>
   </si>
   <si>
     <t>Person making comment</t>
   </si>
   <si>
-    <t>An Extension</t>
+    <t>Optional Extension Element - found in all resources.</t>
   </si>
   <si>
     <t>LAB DATA @PERSON 63-4:63.04-.99:63.041-1</t>
@@ -870,7 +870,7 @@
     <t>COMMENTS</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {http://hl7.org/fhir/4.0/StructureDefinition/extension-Observation.note.text}
+    <t xml:space="preserve">Extension {http://va.gov/fhir/us/vha-ampl-ig/StructureDefinition/note.text}
 </t>
   </si>
   <si>
@@ -4699,7 +4699,7 @@
         <v>44</v>
       </c>
       <c r="AM30" t="s" s="2">
-        <v>44</v>
+        <v>97</v>
       </c>
       <c r="AN30" t="s" s="2">
         <v>44</v>
@@ -4815,7 +4815,7 @@
         <v>44</v>
       </c>
       <c r="AM31" t="s" s="2">
-        <v>44</v>
+        <v>97</v>
       </c>
       <c r="AN31" t="s" s="2">
         <v>44</v>
